--- a/汽柴煤油2.0/eta/EG-SC（期货指数）_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/EG-SC（期货指数）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1614.3596</v>
+        <v>904.875</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1364.65</v>
+        <v>1354.3857</v>
       </c>
       <c r="C3" t="n">
-        <v>1356.9362</v>
+        <v>1279.922</v>
       </c>
     </row>
     <row r="4">
